--- a/ciudadu/entidades.xlsx
+++ b/ciudadu/entidades.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +547,11 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
